--- a/testData/ad_extract_data.xlsx
+++ b/testData/ad_extract_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ad_extract" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
   </si>
   <si>
     <t>gyr2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,11 +416,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> test_F06_S16_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_011</t>
+    <t>test_F06_S16_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F06_S16_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F06_S16_009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +896,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1133,7 +1132,7 @@
       <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1244,7 +1243,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1396,7 +1395,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1427,13 +1426,16 @@
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
@@ -1441,16 +1443,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1459,16 +1461,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1483,7 +1485,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1529,7 +1531,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1">
@@ -1549,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1">
@@ -1569,7 +1571,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1">
@@ -1589,7 +1591,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1602,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1622,19 +1624,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -1642,10 +1644,10 @@
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7">
         <v>10</v>
@@ -1659,15 +1661,15 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7">
         <v>10</v>
@@ -1679,19 +1681,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7">
         <v>10</v>
@@ -1703,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -1727,21 +1729,21 @@
         <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1786,13 +1788,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ad_extract_data.xlsx
+++ b/testData/ad_extract_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ad_extract" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dc=server,dc=com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Admin@12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cn=users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,105 +102,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>左移系统中已存在的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向已选账号列表右移用户账号中包含非法字符的账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向过滤列表中右移test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F06_S16_003</t>
+  </si>
+  <si>
+    <t>删除默认密码1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F06_S16_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F06_S16_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F06_S16_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始密码必须以字母或数字开头，且小于32位！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码以非法字符开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码中含有#%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码超过32为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111111111111111111111111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始密码必须以字母或数字开头，且小于32位！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD发现多节点抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现成功!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户归属节点7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn=users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ou=ouTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cn=ouTestCn,ou=ouTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移系统中已存在的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向已选账号列表右移用户账号中包含非法字符的账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向过滤列表中右移test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_003</t>
-  </si>
-  <si>
-    <t>删除默认密码1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入初始密码!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F06_S16_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码必须以字母或数字开头，且小于32位！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码以非法字符开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码不允许包含'#'和'%'字符！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码中含有#%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码超过32为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111111111111111111111111111111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码必须以字母或数字开头，且小于32位！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD发现多节点抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现成功!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户归属节点7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn=users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ou=ouTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F06_S16_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cn=cnGYR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向已选账号列表左移test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,19 +277,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyr2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa-yh2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,17 +384,61 @@
   </si>
   <si>
     <t xml:space="preserve"> test_F06_S16_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou=ouTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou=ouTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn=ouTestCn,ou=ouTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn=cnGYR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa-yh2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入初始密码!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始密码不允许包含'#'和'%'字符！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,7 +542,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,9 +575,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -609,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,9 +684,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,6 +719,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -892,31 +895,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -939,25 +942,25 @@
         <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,34 +968,34 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1000,34 +1003,34 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,36 +1038,36 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1072,71 +1075,71 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>43</v>
+      <c r="L5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1151,7 +1154,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1166,7 +1169,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1181,7 +1184,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1196,7 +1199,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1211,7 +1214,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1230,31 +1233,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3:F5" r:id="rId2" display="Admin@12345"/>
-    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F3:F6" r:id="rId2" display="Admin@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="8" width="33.25" customWidth="1"/>
-    <col min="9" max="9" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="8" width="33.21875" customWidth="1"/>
+    <col min="9" max="9" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1262,93 +1264,93 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="15">
+        <v>47</v>
+      </c>
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="G2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="14"/>
       <c r="I2" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="15">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="15">
+        <v>47</v>
+      </c>
+      <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="15">
+        <v>48</v>
+      </c>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="1">
@@ -1357,21 +1359,21 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="15">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14">
         <v>1</v>
       </c>
       <c r="F5" s="1">
@@ -1380,7 +1382,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1391,86 +1393,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.375" customWidth="1"/>
-    <col min="2" max="2" width="58.75" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1481,22 +1483,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
     <col min="6" max="6" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1504,94 +1506,94 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1601,53 +1603,53 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="39.75" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1">
+    <row r="2" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7">
         <v>10</v>
@@ -1661,15 +1663,15 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C3" s="7">
         <v>10</v>
@@ -1681,19 +1683,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7">
         <v>10</v>
@@ -1705,19 +1707,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -1729,21 +1731,21 @@
         <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1751,7 +1753,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1761,40 +1763,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
